--- a/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/LTInHouseError.xlsx
+++ b/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/LTInHouseError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10ADA7A-4C8C-48CA-A35F-7896BDE8D0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD888D7-D716-41F5-8597-AE55E153D6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A31218DB-696F-4BF9-805A-A1CAEF522D41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAE914AF-2627-46AF-9A39-6542A68C9191}"/>
   </bookViews>
   <sheets>
     <sheet name="LTInHouseError" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09B570-457F-4257-AE2C-B843FD084D13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6429FB4E-34EF-485B-AC67-2B06E3E9ACB1}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
